--- a/Plan/Angular_learning_plan_liuyang.xlsx
+++ b/Plan/Angular_learning_plan_liuyang.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" refMode="R1C1"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>计划：</t>
   </si>
@@ -36,37 +36,55 @@
     <t>2018/2/16-2018/3/4</t>
   </si>
   <si>
-    <t>1.NgModules
-2.Dependency Injection</t>
+    <t>包含过年</t>
   </si>
   <si>
     <t>1.英雄案例做一遍
-2.architecture架构过一遍
-3.Template</t>
-  </si>
-  <si>
-    <t>1. DateBinging
-2.Forms
-3.bootstrapping</t>
-  </si>
-  <si>
-    <t>1.HttpClient
-2.Routing &amp; Navigation
-3.Testing例子跑一跑
-4.速查表过一遍</t>
-  </si>
-  <si>
-    <t>包含过年</t>
+2.architecture架构过一遍</t>
+  </si>
+  <si>
+    <t>修改一下，时间有点紧</t>
+  </si>
+  <si>
+    <t>1. Template &amp; DateBinging
+2.Forms</t>
+  </si>
+  <si>
+    <t>www.angular.io</t>
+  </si>
+  <si>
+    <t>2018/3/5-2018/3/10</t>
+  </si>
+  <si>
+    <t>1.Routing &amp; Navigation
+2.Testing例子跑一跑
+3.速查表过一遍</t>
+  </si>
+  <si>
+    <t>1.Dependency Injection
+2.HttpClient</t>
+  </si>
+  <si>
+    <t>1.bootstrapping
+2.NgModules</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,20 +122,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,53 +430,71 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plan/Angular_learning_plan_liuyang.xlsx
+++ b/Plan/Angular_learning_plan_liuyang.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="plan" sheetId="1" r:id="rId1"/>
+    <sheet name="done" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>计划：</t>
   </si>
@@ -41,9 +42,6 @@
   <si>
     <t>1.英雄案例做一遍
 2.architecture架构过一遍</t>
-  </si>
-  <si>
-    <t>修改一下，时间有点紧</t>
   </si>
   <si>
     <t>1. Template &amp; DateBinging
@@ -67,6 +65,21 @@
   <si>
     <t>1.bootstrapping
 2.NgModules</t>
+  </si>
+  <si>
+    <t>2018/3/10-2018/3/17</t>
+  </si>
+  <si>
+    <t>前辈们总结文档仔细看一遍</t>
+  </si>
+  <si>
+    <t>https://www.tslang.cn/docs/handbook/basic-types.html</t>
+  </si>
+  <si>
+    <t>https://github.com/FS-Angular-Interest-Group/AngularTraining/tree/master/PPT</t>
+  </si>
+  <si>
+    <t>TypeScript手册指南</t>
   </si>
 </sst>
 </file>
@@ -90,12 +103,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -126,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -134,6 +159,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +461,7 @@
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -431,12 +469,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -454,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -464,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -476,24 +514,138 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
